--- a/PricerAndQutation/OptionPricer_v2_20171229.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20171229.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="offer_van combo" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="230">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,6 +794,50 @@
   </si>
   <si>
     <t>rb1810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险逆转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行权价1(中金卖出看跌):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行权价2(中金买入看涨):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前程石化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利金总额（元）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利金方向:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前程石化支付中金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前程石化支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1508,8 +1552,29 @@
     <xf numFmtId="0" fontId="28" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1520,29 +1585,32 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1550,25 +1618,10 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1596,7 +1649,7 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>56110</v>
+        <v>55700</v>
         <stp/>
         <stp>cu1804</stp>
         <stp>LastPrice</stp>
@@ -1604,7 +1657,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>3602</v>
+        <v>3611</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
@@ -1612,7 +1665,7 @@
         <tr r="H14" s="9"/>
       </tp>
       <tp>
-        <v>3758</v>
+        <v>3796</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -1935,11 +1988,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
     </row>
     <row r="2" spans="1:17" ht="12" thickTop="1"/>
     <row r="3" spans="1:17">
@@ -2772,7 +2825,7 @@
       <c r="P24" s="54">
         <v>0</v>
       </c>
-      <c r="Q24" s="143">
+      <c r="Q24" s="126">
         <v>1301.1530734564294</v>
       </c>
     </row>
@@ -2820,7 +2873,7 @@
       <c r="P25" s="54">
         <v>0</v>
       </c>
-      <c r="Q25" s="143">
+      <c r="Q25" s="126">
         <v>1821.9609786824913</v>
       </c>
     </row>
@@ -2853,78 +2906,82 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:T35"/>
+  <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="3" width="9" style="6"/>
     <col min="4" max="4" width="9" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="5" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="12.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9" style="6"/>
+    <col min="10" max="10" width="10.875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="2:20" ht="12" thickTop="1"/>
     <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="G3" s="140" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="G3" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="L3" s="139" t="s">
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="L3" s="138" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="Q3" s="140" t="s">
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="Q3" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
     </row>
     <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="G4" s="134" t="s">
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="G4" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="L4" s="134" t="s">
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="L4" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="Q4" s="134" t="s">
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="Q4" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
     </row>
     <row r="5" spans="2:20" ht="14.25" thickTop="1">
       <c r="B5" s="33" t="s">
@@ -2933,10 +2990,10 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="137"/>
+      <c r="H5" s="134"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -2945,360 +3002,360 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="137" t="s">
+      <c r="Q5" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="137"/>
+      <c r="R5" s="134"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125" t="s">
+      <c r="C6" s="131"/>
+      <c r="D6" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="126"/>
-      <c r="G6" s="137" t="s">
+      <c r="E6" s="133"/>
+      <c r="G6" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="126"/>
-      <c r="L6" s="124" t="s">
+      <c r="H6" s="134"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
+      <c r="L6" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="124"/>
-      <c r="N6" s="125" t="s">
+      <c r="M6" s="131"/>
+      <c r="N6" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="126"/>
-      <c r="Q6" s="137" t="s">
+      <c r="O6" s="133"/>
+      <c r="Q6" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="137"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="126"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="133"/>
     </row>
     <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="124"/>
-      <c r="D7" s="125" t="s">
+      <c r="C7" s="131"/>
+      <c r="D7" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="G7" s="137" t="s">
+      <c r="E7" s="133"/>
+      <c r="G7" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="126"/>
-      <c r="L7" s="124" t="s">
+      <c r="H7" s="134"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
+      <c r="L7" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="N7" s="125" t="s">
+      <c r="M7" s="131"/>
+      <c r="N7" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="126"/>
-      <c r="Q7" s="137" t="s">
+      <c r="O7" s="133"/>
+      <c r="Q7" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="137"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="126"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="133"/>
     </row>
     <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="125">
+      <c r="C8" s="131"/>
+      <c r="D8" s="132">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="G8" s="137" t="s">
+      <c r="E8" s="133"/>
+      <c r="G8" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="126"/>
-      <c r="L8" s="124" t="s">
+      <c r="H8" s="134"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
+      <c r="L8" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="124"/>
-      <c r="N8" s="125">
+      <c r="M8" s="131"/>
+      <c r="N8" s="132">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="126"/>
-      <c r="Q8" s="137" t="s">
+      <c r="O8" s="133"/>
+      <c r="Q8" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="137"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="126"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="133"/>
     </row>
     <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="G9" s="137" t="s">
+      <c r="E9" s="133"/>
+      <c r="G9" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
-      <c r="L9" s="124" t="s">
+      <c r="H9" s="134"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133"/>
+      <c r="L9" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="124"/>
-      <c r="N9" s="125" t="s">
+      <c r="M9" s="131"/>
+      <c r="N9" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="126"/>
-      <c r="Q9" s="137" t="s">
+      <c r="O9" s="133"/>
+      <c r="Q9" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="137"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="126"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="133"/>
     </row>
     <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="125">
+      <c r="C10" s="131"/>
+      <c r="D10" s="132">
         <v>43084</v>
       </c>
-      <c r="E10" s="126"/>
+      <c r="E10" s="133"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="126"/>
-      <c r="L10" s="124" t="s">
+      <c r="I10" s="132"/>
+      <c r="J10" s="133"/>
+      <c r="L10" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="124"/>
-      <c r="N10" s="125">
+      <c r="M10" s="131"/>
+      <c r="N10" s="132">
         <v>43084</v>
       </c>
-      <c r="O10" s="126"/>
+      <c r="O10" s="133"/>
       <c r="Q10" s="62" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="62"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="126"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="133"/>
     </row>
     <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125">
+      <c r="C11" s="131"/>
+      <c r="D11" s="132">
         <v>3935</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="G11" s="137" t="s">
+      <c r="E11" s="133"/>
+      <c r="G11" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="137"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="126"/>
-      <c r="L11" s="124" t="s">
+      <c r="H11" s="134"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="133"/>
+      <c r="L11" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="124"/>
-      <c r="N11" s="125">
+      <c r="M11" s="131"/>
+      <c r="N11" s="132">
         <v>3935</v>
       </c>
-      <c r="O11" s="126"/>
-      <c r="Q11" s="137" t="s">
+      <c r="O11" s="133"/>
+      <c r="Q11" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="137"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="126"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="133"/>
     </row>
     <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125">
+      <c r="C12" s="131"/>
+      <c r="D12" s="132">
         <v>3800</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="G12" s="137" t="s">
+      <c r="E12" s="133"/>
+      <c r="G12" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="137"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="126"/>
-      <c r="L12" s="124" t="s">
+      <c r="H12" s="134"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
+      <c r="L12" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="124"/>
-      <c r="N12" s="125">
+      <c r="M12" s="131"/>
+      <c r="N12" s="132">
         <v>3800</v>
       </c>
-      <c r="O12" s="126"/>
-      <c r="Q12" s="137" t="s">
+      <c r="O12" s="133"/>
+      <c r="Q12" s="134" t="s">
         <v>194</v>
       </c>
-      <c r="R12" s="137"/>
-      <c r="S12" s="125"/>
-      <c r="T12" s="126"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="133"/>
     </row>
     <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="125">
+      <c r="C13" s="131"/>
+      <c r="D13" s="132">
         <v>61</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="G13" s="137" t="s">
+      <c r="E13" s="133"/>
+      <c r="G13" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
-      <c r="L13" s="124" t="s">
+      <c r="H13" s="134"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="133"/>
+      <c r="L13" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="M13" s="124"/>
-      <c r="N13" s="125">
+      <c r="M13" s="131"/>
+      <c r="N13" s="132">
         <v>3800</v>
       </c>
-      <c r="O13" s="126"/>
-      <c r="Q13" s="137" t="s">
+      <c r="O13" s="133"/>
+      <c r="Q13" s="134" t="s">
         <v>195</v>
       </c>
-      <c r="R13" s="137"/>
-      <c r="S13" s="125"/>
-      <c r="T13" s="126"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="133"/>
     </row>
     <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125" t="s">
+      <c r="C14" s="131"/>
+      <c r="D14" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="126"/>
-      <c r="G14" s="137" t="s">
+      <c r="E14" s="133"/>
+      <c r="G14" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="137"/>
+      <c r="H14" s="134"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="124" t="s">
+      <c r="L14" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="124"/>
-      <c r="N14" s="125">
+      <c r="M14" s="131"/>
+      <c r="N14" s="132">
         <v>61</v>
       </c>
-      <c r="O14" s="126"/>
-      <c r="Q14" s="137" t="s">
+      <c r="O14" s="133"/>
+      <c r="Q14" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="137"/>
-      <c r="S14" s="125"/>
-      <c r="T14" s="126"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="133"/>
     </row>
     <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125">
+      <c r="C15" s="131"/>
+      <c r="D15" s="132">
         <v>5000</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="G15" s="137" t="s">
+      <c r="E15" s="133"/>
+      <c r="G15" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="126"/>
-      <c r="L15" s="124" t="s">
+      <c r="H15" s="134"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="133"/>
+      <c r="L15" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="124"/>
-      <c r="N15" s="125" t="s">
+      <c r="M15" s="131"/>
+      <c r="N15" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="126"/>
-      <c r="Q15" s="137" t="s">
+      <c r="O15" s="133"/>
+      <c r="Q15" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="137"/>
+      <c r="R15" s="134"/>
       <c r="S15" s="60"/>
       <c r="T15" s="61"/>
     </row>
     <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="130" t="s">
+      <c r="C16" s="137"/>
+      <c r="D16" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="131"/>
-      <c r="G16" s="132" t="s">
+      <c r="E16" s="130"/>
+      <c r="G16" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="132"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="131"/>
-      <c r="L16" s="124" t="s">
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="130"/>
+      <c r="L16" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="124"/>
-      <c r="N16" s="125">
+      <c r="M16" s="131"/>
+      <c r="N16" s="132">
         <v>5000</v>
       </c>
-      <c r="O16" s="126"/>
-      <c r="Q16" s="137" t="s">
+      <c r="O16" s="133"/>
+      <c r="Q16" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="137"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="126"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="133"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="129" t="s">
+      <c r="L17" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="129"/>
-      <c r="N17" s="130" t="s">
+      <c r="M17" s="137"/>
+      <c r="N17" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="131"/>
-      <c r="Q17" s="132" t="s">
+      <c r="O17" s="130"/>
+      <c r="Q17" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="132"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="131"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="130"/>
     </row>
     <row r="18" spans="2:20" ht="12" thickTop="1"/>
     <row r="19" spans="2:20" ht="13.5">
@@ -3313,160 +3370,351 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="G22" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="2:20" ht="14.25" thickTop="1">
       <c r="B23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="135">
+      <c r="D23" s="143">
         <v>43084</v>
       </c>
-      <c r="E23" s="136"/>
+      <c r="E23" s="144"/>
+      <c r="G23" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="143">
+        <v>43098</v>
+      </c>
+      <c r="J23" s="144"/>
     </row>
     <row r="24" spans="2:20" ht="13.5">
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="125" t="s">
+      <c r="C24" s="131"/>
+      <c r="D24" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="126"/>
+      <c r="E24" s="133"/>
+      <c r="G24" s="131" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" s="133"/>
     </row>
     <row r="25" spans="2:20" ht="13.5">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="125" t="s">
+      <c r="C25" s="131"/>
+      <c r="D25" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="126"/>
+      <c r="E25" s="133"/>
+      <c r="G25" s="131" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132">
+        <v>9375</v>
+      </c>
+      <c r="J25" s="133"/>
     </row>
     <row r="26" spans="2:20" ht="13.5">
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="124"/>
-      <c r="D26" s="127">
+      <c r="C26" s="131"/>
+      <c r="D26" s="140">
         <f>D31*D33</f>
         <v>1500000</v>
       </c>
-      <c r="E26" s="128"/>
+      <c r="E26" s="141"/>
+      <c r="G26" s="123" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" s="123"/>
+      <c r="I26" s="132" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" s="133" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="27" spans="2:20" ht="13.5">
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125" t="s">
+      <c r="C27" s="131"/>
+      <c r="D27" s="132" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="126"/>
+      <c r="E27" s="133"/>
+      <c r="G27" s="131" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="131"/>
+      <c r="I27" s="132" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" s="133"/>
     </row>
     <row r="28" spans="2:20" ht="13.5">
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="133">
+      <c r="C28" s="131"/>
+      <c r="D28" s="142">
         <v>43140</v>
       </c>
-      <c r="E28" s="126"/>
+      <c r="E28" s="133"/>
+      <c r="G28" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="131"/>
+      <c r="I28" s="142">
+        <v>43159</v>
+      </c>
+      <c r="J28" s="133"/>
     </row>
     <row r="29" spans="2:20" ht="13.5">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="125">
+      <c r="C29" s="131"/>
+      <c r="D29" s="132">
         <v>3587</v>
       </c>
-      <c r="E29" s="126"/>
+      <c r="E29" s="133"/>
+      <c r="G29" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132">
+        <v>9770</v>
+      </c>
+      <c r="J29" s="133"/>
     </row>
     <row r="30" spans="2:20" ht="13.5">
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="125">
+      <c r="C30" s="131"/>
+      <c r="D30" s="132">
         <v>3650</v>
       </c>
-      <c r="E30" s="126"/>
+      <c r="E30" s="133"/>
+      <c r="G30" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30" s="131"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="125">
+        <v>9500</v>
+      </c>
     </row>
     <row r="31" spans="2:20" ht="13.5">
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125">
+      <c r="C31" s="131"/>
+      <c r="D31" s="132">
         <v>150</v>
       </c>
-      <c r="E31" s="126"/>
+      <c r="E31" s="133"/>
+      <c r="G31" s="131" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132">
+        <v>10040</v>
+      </c>
+      <c r="J31" s="133"/>
     </row>
     <row r="32" spans="2:20" ht="13.5">
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="125" t="s">
+      <c r="C32" s="131"/>
+      <c r="D32" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="126"/>
-    </row>
-    <row r="33" spans="2:5" ht="13.5">
-      <c r="B33" s="124" t="s">
+      <c r="E32" s="133"/>
+      <c r="G32" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132">
+        <v>15</v>
+      </c>
+      <c r="J32" s="133"/>
+    </row>
+    <row r="33" spans="2:10" ht="13.5">
+      <c r="B33" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="124"/>
-      <c r="D33" s="127">
+      <c r="C33" s="131"/>
+      <c r="D33" s="140">
         <v>10000</v>
       </c>
-      <c r="E33" s="128"/>
-    </row>
-    <row r="34" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B34" s="129" t="s">
+      <c r="E33" s="141"/>
+      <c r="G33" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" s="133"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.25" thickBot="1">
+      <c r="B34" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="129"/>
-      <c r="D34" s="130" t="s">
+      <c r="C34" s="137"/>
+      <c r="D34" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="131"/>
-    </row>
-    <row r="35" spans="2:5" ht="12" thickTop="1"/>
+      <c r="E34" s="130"/>
+      <c r="G34" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="131"/>
+      <c r="I34" s="140">
+        <v>625</v>
+      </c>
+      <c r="J34" s="141"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" thickTop="1" thickBot="1">
+      <c r="G35" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="137"/>
+      <c r="I35" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="130"/>
+    </row>
+    <row r="36" spans="2:10" ht="12" thickTop="1"/>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+  <mergeCells count="147">
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -3491,82 +3739,29 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3601,11 +3796,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1"/>
     <row r="3" spans="1:21">
@@ -3829,8 +4024,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3854,10 +4049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -3993,18 +4188,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3758</v>
+        <v>3796</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
-        <f t="shared" ref="J8:J14" ca="1" si="1">TODAY()</f>
-        <v>43097</v>
+        <f t="shared" ref="J8:J11" ca="1" si="1">TODAY()</f>
+        <v>43098</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" ref="K8:K9" ca="1" si="2">J8+L8</f>
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -4021,30 +4216,30 @@
       </c>
       <c r="P8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-109.52485134866333</v>
+        <v>-128.07571831732707</v>
       </c>
       <c r="Q8" s="25">
         <v>80</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R9" si="4">Q8/10000*M8*H8</f>
-        <v>2.471013698630137</v>
+        <v>2.496</v>
       </c>
       <c r="S8" s="24">
         <f t="shared" ref="S8:S9" si="5">IF(P8&lt;=0,ABS(P8)+R8,P8-R8)</f>
-        <v>111.99586504729346</v>
+        <v>130.57171831732708</v>
       </c>
       <c r="T8" s="26">
         <f t="shared" ref="T8:T9" si="6">S8/H8</f>
-        <v>2.9801986441536314E-2</v>
+        <v>3.4397186068842754E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-0.46488102416333277</v>
+        <v>-0.51142748085339917</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-4.2751240619686541</v>
+        <v>-4.3324238038263729</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -4076,11 +4271,11 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -4146,19 +4341,19 @@
       </c>
       <c r="H10" s="11">
         <f>RTD("wdf.rtq",,F10,"LastPrice")</f>
-        <v>56110</v>
+        <v>55700</v>
       </c>
       <c r="I10" s="11">
         <f>H10</f>
-        <v>56110</v>
+        <v>55700</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ref="K10" ca="1" si="8">J10+L10</f>
-        <v>43128</v>
+        <v>43129</v>
       </c>
       <c r="L10" s="10">
         <v>31</v>
@@ -4175,7 +4370,7 @@
       </c>
       <c r="P10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-1302.3135738787096</v>
+        <v>-1292.7974704160442</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="13">
@@ -4184,19 +4379,19 @@
       </c>
       <c r="S10" s="13">
         <f t="shared" ref="S10" si="11">IF(P10&lt;=0,ABS(P10)+R10,P10-R10)</f>
-        <v>1302.3135738787096</v>
+        <v>1292.7974704160442</v>
       </c>
       <c r="T10" s="14">
         <f t="shared" ref="T10" si="12">S10/H10</f>
-        <v>2.3210008445530381E-2</v>
+        <v>2.3210008445530419E-2</v>
       </c>
       <c r="U10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-0.51075641003990313</v>
+        <v>-0.51075641022180207</v>
       </c>
       <c r="V10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-65.097223188593489</v>
+        <v>-64.621552871230961</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -4222,19 +4417,19 @@
       </c>
       <c r="H11" s="11">
         <f>RTD("wdf.rtq",,F11,"LastPrice")</f>
-        <v>56110</v>
+        <v>55700</v>
       </c>
       <c r="I11" s="11">
         <f>H11</f>
-        <v>56110</v>
+        <v>55700</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ref="K11" ca="1" si="14">J11+L11</f>
-        <v>43158</v>
+        <v>43159</v>
       </c>
       <c r="L11" s="10">
         <v>61</v>
@@ -4251,7 +4446,7 @@
       </c>
       <c r="P11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-1823.585988474395</v>
+        <v>-1810.2609081807859</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="13">
@@ -4260,19 +4455,19 @@
       </c>
       <c r="S11" s="13">
         <f t="shared" ref="S11" si="17">IF(P11&lt;=0,ABS(P11)+R11,P11-R11)</f>
-        <v>1823.585988474395</v>
+        <v>1810.2609081807859</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" ref="T11" si="18">S11/H11</f>
-        <v>3.2500195838075119E-2</v>
+        <v>3.2500195838075153E-2</v>
       </c>
       <c r="U11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-0.51458165526128141</v>
+        <v>-0.51458165471558459</v>
       </c>
       <c r="V11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-91.128453442684986</v>
+        <v>-90.46257096341651</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -4968,8 +5163,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4998,10 +5193,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="37" t="s">
@@ -5144,11 +5339,11 @@
       </c>
       <c r="J8" s="76">
         <f ca="1">TODAY()</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K8" s="76">
         <f ca="1">J8+L8</f>
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="L8" s="74">
         <v>30</v>
@@ -5212,11 +5407,11 @@
       </c>
       <c r="J9" s="84">
         <f t="shared" ref="J9:L10" ca="1" si="0">J8</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K9" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="L9" s="82">
         <f t="shared" si="0"/>
@@ -5280,11 +5475,11 @@
       </c>
       <c r="J10" s="92">
         <f t="shared" ca="1" si="0"/>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K10" s="92">
         <f t="shared" ca="1" si="0"/>
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="L10" s="90">
         <f t="shared" si="0"/>
@@ -5347,18 +5542,18 @@
       </c>
       <c r="H11" s="83">
         <f>RTD("wdf.rtq",,F11,"LastPrice")</f>
-        <v>3602</v>
+        <v>3611</v>
       </c>
       <c r="I11" s="83">
         <v>3600</v>
       </c>
       <c r="J11" s="84">
         <f ca="1">TODAY()</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K11" s="84">
         <f ca="1">J11+L11</f>
-        <v>43248</v>
+        <v>43249</v>
       </c>
       <c r="L11" s="82">
         <v>151</v>
@@ -5375,22 +5570,22 @@
       </c>
       <c r="P11" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-162.44105177731763</v>
+        <v>-167.8700202569953</v>
       </c>
       <c r="Q11" s="87"/>
       <c r="R11" s="81"/>
       <c r="S11" s="81">
         <f>P11+R11</f>
-        <v>-162.44105177731763</v>
+        <v>-167.8700202569953</v>
       </c>
       <c r="T11" s="88"/>
       <c r="U11" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-0.59780641017823655</v>
+        <v>-0.60861411407131527</v>
       </c>
       <c r="V11" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-9.0648510176687296</v>
+        <v>-9.0247985052724289</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="13.5">
@@ -5417,18 +5612,18 @@
       </c>
       <c r="H12" s="83">
         <f>H11</f>
-        <v>3602</v>
+        <v>3611</v>
       </c>
       <c r="I12" s="83">
         <v>3750</v>
       </c>
       <c r="J12" s="84">
         <f ca="1">J11</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K12" s="84">
         <f ca="1">K11</f>
-        <v>43248</v>
+        <v>43249</v>
       </c>
       <c r="L12" s="82">
         <f>L11</f>
@@ -5446,22 +5641,22 @@
       </c>
       <c r="P12" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
-        <v>74.858018031571419</v>
+        <v>78.49080175272843</v>
       </c>
       <c r="Q12" s="87"/>
       <c r="R12" s="81"/>
       <c r="S12" s="81">
         <f>P12+R12</f>
-        <v>74.858018031571419</v>
+        <v>78.49080175272843</v>
       </c>
       <c r="T12" s="88"/>
       <c r="U12" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
-        <v>0.39735004921794825</v>
+        <v>0.4099471253766751</v>
       </c>
       <c r="V12" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
-        <v>8.986077633477862</v>
+        <v>9.0829530339575513</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.5">
@@ -5483,7 +5678,7 @@
       <c r="G13" s="90"/>
       <c r="H13" s="91">
         <f>H12</f>
-        <v>3602</v>
+        <v>3611</v>
       </c>
       <c r="I13" s="90" t="str">
         <f>I11 &amp; "|" &amp; I12</f>
@@ -5491,11 +5686,11 @@
       </c>
       <c r="J13" s="92">
         <f t="shared" ref="J13:K13" ca="1" si="2">J12</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K13" s="92">
         <f t="shared" ca="1" si="2"/>
-        <v>43248</v>
+        <v>43249</v>
       </c>
       <c r="L13" s="90">
         <f>L12</f>
@@ -5509,30 +5704,30 @@
       <c r="O13" s="90"/>
       <c r="P13" s="89">
         <f>P12+P11</f>
-        <v>-87.583033745746206</v>
+        <v>-89.379218504266873</v>
       </c>
       <c r="Q13" s="90">
         <v>50</v>
       </c>
       <c r="R13" s="89">
         <f>Q13/10000*M13*H13</f>
-        <v>7.450712328767124</v>
+        <v>7.4693287671232884</v>
       </c>
       <c r="S13" s="89">
         <f>IF(P13&lt;=0,ABS(P13)+R13,P13-R13)</f>
-        <v>95.033746074513331</v>
+        <v>96.84854727139016</v>
       </c>
       <c r="T13" s="94">
         <f>S13/H13</f>
-        <v>2.6383605240009253E-2</v>
+        <v>2.6820422949706497E-2</v>
       </c>
       <c r="U13" s="94">
         <f>U12+U11</f>
-        <v>-0.20045636096028829</v>
+        <v>-0.19866698869464017</v>
       </c>
       <c r="V13" s="94">
         <f>V12+V11</f>
-        <v>-7.8773384190867546E-2</v>
+        <v>5.8154528685122386E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="13.5">
@@ -5558,18 +5753,18 @@
       </c>
       <c r="H14" s="83">
         <f>RTD("wdf.rtq",,F14,"LastPrice")</f>
-        <v>3602</v>
+        <v>3611</v>
       </c>
       <c r="I14" s="83">
         <v>3900</v>
       </c>
       <c r="J14" s="84">
         <f ca="1">TODAY()</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K14" s="84">
         <f ca="1">J14+L14</f>
-        <v>43248</v>
+        <v>43249</v>
       </c>
       <c r="L14" s="82">
         <v>151</v>
@@ -5586,22 +5781,22 @@
       </c>
       <c r="P14" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G14,$H14,$I14,$M14,$C$3,$N14,$O14,$C$4)*E14</f>
-        <v>48.279187853996063</v>
+        <v>50.648329508153779</v>
       </c>
       <c r="Q14" s="87"/>
       <c r="R14" s="81"/>
       <c r="S14" s="81">
         <f>P14+R14</f>
-        <v>48.279187853996063</v>
+        <v>50.648329508153779</v>
       </c>
       <c r="T14" s="88"/>
       <c r="U14" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G14,$H14,$I14,$M14,$C$3,$N14,$O14,$C$4)*E14</f>
-        <v>0.25870813514643487</v>
+        <v>0.26779086213082337</v>
       </c>
       <c r="V14" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G14,$H14,$I14,$M14,$C$3,$N14,$O14,$C$4)*E14</f>
-        <v>7.5175062280407587</v>
+        <v>7.6716780333890711</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.5">
@@ -5628,18 +5823,18 @@
       </c>
       <c r="H15" s="83">
         <f>H14</f>
-        <v>3602</v>
+        <v>3611</v>
       </c>
       <c r="I15" s="83">
         <v>4050</v>
       </c>
       <c r="J15" s="84">
         <f ca="1">J14</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K15" s="84">
         <f ca="1">K14</f>
-        <v>43248</v>
+        <v>43249</v>
       </c>
       <c r="L15" s="82">
         <f>L14</f>
@@ -5657,22 +5852,22 @@
       </c>
       <c r="P15" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G15,$H15,$I15,$M15,$C$3,$N15,$O15,$C$4)*E15</f>
-        <v>-13.288909023248095</v>
+        <v>-14.248312515368525</v>
       </c>
       <c r="Q15" s="87"/>
       <c r="R15" s="81"/>
       <c r="S15" s="81">
         <f>P15+R15</f>
-        <v>-13.288909023248095</v>
+        <v>-14.248312515368525</v>
       </c>
       <c r="T15" s="88"/>
       <c r="U15" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G15,$H15,$I15,$M15,$C$3,$N15,$O15,$C$4)*E15</f>
-        <v>-0.10364064522718763</v>
+        <v>-0.109597766302727</v>
       </c>
       <c r="V15" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G15,$H15,$I15,$M15,$C$3,$N15,$O15,$C$4)*E15</f>
-        <v>-4.1719439131621527</v>
+        <v>-4.3546719707687487</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.5">
@@ -5694,7 +5889,7 @@
       <c r="G16" s="90"/>
       <c r="H16" s="91">
         <f>H15</f>
-        <v>3602</v>
+        <v>3611</v>
       </c>
       <c r="I16" s="90" t="str">
         <f>I14 &amp; "|" &amp; I15</f>
@@ -5702,11 +5897,11 @@
       </c>
       <c r="J16" s="92">
         <f t="shared" ref="J16:K16" ca="1" si="3">J15</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K16" s="92">
         <f t="shared" ca="1" si="3"/>
-        <v>43248</v>
+        <v>43249</v>
       </c>
       <c r="L16" s="90">
         <f>L15</f>
@@ -5720,103 +5915,239 @@
       <c r="O16" s="90"/>
       <c r="P16" s="89">
         <f>P15+P14</f>
-        <v>34.990278830747968</v>
+        <v>36.400016992785254</v>
       </c>
       <c r="Q16" s="90">
         <v>50</v>
       </c>
       <c r="R16" s="89">
         <f>Q16/10000*M16*H16</f>
-        <v>7.450712328767124</v>
+        <v>7.4693287671232884</v>
       </c>
       <c r="S16" s="89">
         <f>IF(P16&lt;=0,ABS(P16)+R16,P16-R16)</f>
-        <v>27.539566501980843</v>
+        <v>28.930688225661967</v>
       </c>
       <c r="T16" s="94">
         <f>S16/H16</f>
-        <v>7.6456320105443764E-3</v>
+        <v>8.0118217185438847E-3</v>
       </c>
       <c r="U16" s="94">
         <f>U15+U14</f>
-        <v>0.15506748991924724</v>
+        <v>0.15819309582809638</v>
       </c>
       <c r="V16" s="94">
         <f>V15+V14</f>
-        <v>3.345562314878606</v>
+        <v>3.3170060626203224</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.5">
       <c r="A17" s="95"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="81"/>
+      <c r="B17" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="82">
+        <f>IF(D17="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="83">
+        <v>9760</v>
+      </c>
+      <c r="I17" s="83">
+        <v>9500</v>
+      </c>
+      <c r="J17" s="84">
+        <f ca="1">TODAY()</f>
+        <v>43098</v>
+      </c>
+      <c r="K17" s="84">
+        <f ca="1">J17+L17</f>
+        <v>43160</v>
+      </c>
+      <c r="L17" s="82">
+        <v>62</v>
+      </c>
+      <c r="M17" s="85">
+        <f>L17/365</f>
+        <v>0.16986301369863013</v>
+      </c>
+      <c r="N17" s="85">
+        <v>0.04</v>
+      </c>
+      <c r="O17" s="86">
+        <v>0.19</v>
+      </c>
+      <c r="P17" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G17,$H17,$I17,$M17,$C$3,$N17,$O17,$C$4)*E17</f>
+        <v>-165.63134768741293</v>
+      </c>
       <c r="Q17" s="87"/>
       <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
+      <c r="S17" s="81">
+        <f>P17+R17</f>
+        <v>-165.63134768741293</v>
+      </c>
       <c r="T17" s="88"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
+      <c r="U17" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G17,$H17,$I17,$M17,$C$3,$N17,$O17,$C$4)*E17</f>
+        <v>0.32000440016872744</v>
+      </c>
+      <c r="V17" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G17,$H17,$I17,$M17,$C$3,$N17,$O17,$C$4)*E17</f>
+        <v>-14.409978656959993</v>
+      </c>
     </row>
     <row r="18" spans="1:22" ht="13.5">
       <c r="A18" s="95"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="81"/>
+      <c r="B18" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="82">
+        <f>IF(D18="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="83">
+        <f>9760</f>
+        <v>9760</v>
+      </c>
+      <c r="I18" s="83">
+        <v>10040</v>
+      </c>
+      <c r="J18" s="84">
+        <f ca="1">J17</f>
+        <v>43098</v>
+      </c>
+      <c r="K18" s="84">
+        <f ca="1">K17</f>
+        <v>43160</v>
+      </c>
+      <c r="L18" s="82">
+        <v>62</v>
+      </c>
+      <c r="M18" s="85">
+        <f>L18/365</f>
+        <v>0.16986301369863013</v>
+      </c>
+      <c r="N18" s="85">
+        <v>0.04</v>
+      </c>
+      <c r="O18" s="86">
+        <v>0.19</v>
+      </c>
+      <c r="P18" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G18,$H18,$I18,$M18,$C$3,$N18,$O18,$C$4)*E18</f>
+        <v>214.38149431931424</v>
+      </c>
       <c r="Q18" s="87"/>
       <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
+      <c r="S18" s="81">
+        <f>P18+R18</f>
+        <v>214.38149431931424</v>
+      </c>
       <c r="T18" s="88"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
+      <c r="U18" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G18,$H18,$I18,$M18,$C$3,$N18,$O18,$C$4)*E18</f>
+        <v>0.40838077020453056</v>
+      </c>
+      <c r="V18" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G18,$H18,$I18,$M18,$C$3,$N18,$O18,$C$4)*E18</f>
+        <v>15.661001566102641</v>
+      </c>
     </row>
     <row r="19" spans="1:22" ht="13.5">
       <c r="A19" s="95"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
+      <c r="B19" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>20</v>
+      </c>
       <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
+      <c r="F19" s="90" t="str">
+        <f>F18</f>
+        <v>l1805</v>
+      </c>
       <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="93"/>
+      <c r="H19" s="91">
+        <f>H18</f>
+        <v>9760</v>
+      </c>
+      <c r="I19" s="90" t="str">
+        <f>I17 &amp; "|" &amp; I18</f>
+        <v>9500|10040</v>
+      </c>
+      <c r="J19" s="92">
+        <f t="shared" ref="J19:K19" ca="1" si="4">J18</f>
+        <v>43098</v>
+      </c>
+      <c r="K19" s="92">
+        <f t="shared" ca="1" si="4"/>
+        <v>43160</v>
+      </c>
+      <c r="L19" s="90">
+        <f>L18</f>
+        <v>62</v>
+      </c>
+      <c r="M19" s="93">
+        <f>M18</f>
+        <v>0.16986301369863013</v>
+      </c>
       <c r="N19" s="93"/>
       <c r="O19" s="90"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
+      <c r="P19" s="89">
+        <f>P18+P17</f>
+        <v>48.750146631901316</v>
+      </c>
+      <c r="Q19" s="90">
+        <v>0</v>
+      </c>
+      <c r="R19" s="89">
+        <f>Q19/10000*M19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="89">
+        <f>IF(P19&lt;=0,ABS(P19)+R19,P19-R19)</f>
+        <v>48.750146631901316</v>
+      </c>
+      <c r="T19" s="94">
+        <f>S19/H19</f>
+        <v>4.9948920729407089E-3</v>
+      </c>
+      <c r="U19" s="94">
+        <f>U18+U17</f>
+        <v>0.72838517037325801</v>
+      </c>
+      <c r="V19" s="94">
+        <f>V18+V17</f>
+        <v>1.2510229091426481</v>
+      </c>
     </row>
     <row r="20" spans="1:22" ht="13.5">
       <c r="A20" s="95"/>
@@ -6357,10 +6688,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -6508,7 +6839,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3758</v>
+        <v>3796</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -6525,11 +6856,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -6546,30 +6877,30 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-45.962876918193125</v>
+        <v>-52.755702442371344</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.471013698630137</v>
+        <v>2.496</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>48.433890616823263</v>
+        <v>55.251702442371347</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>1.2888209317941261E-2</v>
+        <v>1.4555243003785918E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.16108696102428155</v>
+        <v>0.17054719041418309</v>
       </c>
       <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.78033748782100787</v>
+        <v>0.64080780554556327</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -6611,11 +6942,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43277</v>
+        <v>43278</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -8307,10 +8638,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="142"/>
+      <c r="C1" s="146"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -8442,18 +8773,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3758</v>
+        <v>3796</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -8467,30 +8798,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>110.96721199933086</v>
+        <v>129.67796544096541</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.471013698630137</v>
+        <v>2.496</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>113.43822569796099</v>
+        <v>132.17396544096542</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>3.018579715219824E-2</v>
+        <v>3.4819274352203743E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.46905995640145193</v>
+        <v>0.5156548936611216</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.2819762222401323</v>
+        <v>4.3345142559755914</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -8522,11 +8853,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -8592,11 +8923,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43127</v>
+        <v>43128</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>

--- a/PricerAndQutation/OptionPricer_v2_20171229.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20171229.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="offer_van combo" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="230">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1567,15 +1567,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1585,38 +1576,47 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1649,7 +1649,7 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>55700</v>
+        <v>55200</v>
         <stp/>
         <stp>cu1804</stp>
         <stp>LastPrice</stp>
@@ -1657,7 +1657,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>3611</v>
+        <v>3672</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
@@ -1665,7 +1665,7 @@
         <tr r="H14" s="9"/>
       </tp>
       <tp>
-        <v>3796</v>
+        <v>3855</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -1966,10 +1966,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2892,6 +2892,20 @@
         <f>G29/G30</f>
         <v>3.1817462410973357E-2</v>
       </c>
+      <c r="Q31" s="6">
+        <v>108215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="Q32" s="6">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17">
+      <c r="Q33" s="6">
+        <f>Q31/Q32</f>
+        <v>173.14400000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2908,9 +2922,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="17" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22:J35"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2925,63 +2939,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="2:20" ht="12" thickTop="1"/>
     <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="G3" s="135" t="s">
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="G3" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="L3" s="138" t="s">
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="L3" s="143" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="Q3" s="135" t="s">
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="Q3" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="144"/>
     </row>
     <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="G4" s="136" t="s">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="G4" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="L4" s="136" t="s">
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="L4" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="Q4" s="136" t="s">
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="Q4" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
     </row>
     <row r="5" spans="2:20" ht="14.25" thickTop="1">
       <c r="B5" s="33" t="s">
@@ -2990,10 +3004,10 @@
       <c r="C5" s="34"/>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-      <c r="G5" s="134" t="s">
+      <c r="G5" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="134"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -3002,360 +3016,360 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="134" t="s">
+      <c r="Q5" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="134"/>
+      <c r="R5" s="141"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="132" t="s">
+      <c r="C6" s="128"/>
+      <c r="D6" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="133"/>
-      <c r="G6" s="134" t="s">
+      <c r="E6" s="130"/>
+      <c r="G6" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="134"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
-      <c r="L6" s="131" t="s">
+      <c r="H6" s="141"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
+      <c r="L6" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="131"/>
-      <c r="N6" s="132" t="s">
+      <c r="M6" s="128"/>
+      <c r="N6" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="133"/>
-      <c r="Q6" s="134" t="s">
+      <c r="O6" s="130"/>
+      <c r="Q6" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="134"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="133"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="130"/>
     </row>
     <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="G7" s="134" t="s">
+      <c r="E7" s="130"/>
+      <c r="G7" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
-      <c r="L7" s="131" t="s">
+      <c r="H7" s="141"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="130"/>
+      <c r="L7" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="132" t="s">
+      <c r="M7" s="128"/>
+      <c r="N7" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="133"/>
-      <c r="Q7" s="134" t="s">
+      <c r="O7" s="130"/>
+      <c r="Q7" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="134"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="133"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="130"/>
     </row>
     <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="128"/>
+      <c r="D8" s="129">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="G8" s="134" t="s">
+      <c r="E8" s="130"/>
+      <c r="G8" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="134"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
-      <c r="L8" s="131" t="s">
+      <c r="H8" s="141"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="130"/>
+      <c r="L8" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="132">
+      <c r="M8" s="128"/>
+      <c r="N8" s="129">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="133"/>
-      <c r="Q8" s="134" t="s">
+      <c r="O8" s="130"/>
+      <c r="Q8" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="134"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="133"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="130"/>
     </row>
     <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="132" t="s">
+      <c r="C9" s="128"/>
+      <c r="D9" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="133"/>
-      <c r="G9" s="134" t="s">
+      <c r="E9" s="130"/>
+      <c r="G9" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="134"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133"/>
-      <c r="L9" s="131" t="s">
+      <c r="H9" s="141"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="130"/>
+      <c r="L9" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="131"/>
-      <c r="N9" s="132" t="s">
+      <c r="M9" s="128"/>
+      <c r="N9" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="133"/>
-      <c r="Q9" s="134" t="s">
+      <c r="O9" s="130"/>
+      <c r="Q9" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="134"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="133"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="130"/>
     </row>
     <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="132">
+      <c r="C10" s="128"/>
+      <c r="D10" s="129">
         <v>43084</v>
       </c>
-      <c r="E10" s="133"/>
+      <c r="E10" s="130"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133"/>
-      <c r="L10" s="131" t="s">
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+      <c r="L10" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="131"/>
-      <c r="N10" s="132">
+      <c r="M10" s="128"/>
+      <c r="N10" s="129">
         <v>43084</v>
       </c>
-      <c r="O10" s="133"/>
+      <c r="O10" s="130"/>
       <c r="Q10" s="62" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="62"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="133"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="130"/>
     </row>
     <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132">
+      <c r="C11" s="128"/>
+      <c r="D11" s="129">
         <v>3935</v>
       </c>
-      <c r="E11" s="133"/>
-      <c r="G11" s="134" t="s">
+      <c r="E11" s="130"/>
+      <c r="G11" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="133"/>
-      <c r="L11" s="131" t="s">
+      <c r="H11" s="141"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
+      <c r="L11" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="131"/>
-      <c r="N11" s="132">
+      <c r="M11" s="128"/>
+      <c r="N11" s="129">
         <v>3935</v>
       </c>
-      <c r="O11" s="133"/>
-      <c r="Q11" s="134" t="s">
+      <c r="O11" s="130"/>
+      <c r="Q11" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="134"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="133"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="130"/>
     </row>
     <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="132">
+      <c r="C12" s="128"/>
+      <c r="D12" s="129">
         <v>3800</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="G12" s="134" t="s">
+      <c r="E12" s="130"/>
+      <c r="G12" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="134"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
-      <c r="L12" s="131" t="s">
+      <c r="H12" s="141"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="130"/>
+      <c r="L12" s="128" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="131"/>
-      <c r="N12" s="132">
+      <c r="M12" s="128"/>
+      <c r="N12" s="129">
         <v>3800</v>
       </c>
-      <c r="O12" s="133"/>
-      <c r="Q12" s="134" t="s">
+      <c r="O12" s="130"/>
+      <c r="Q12" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="R12" s="134"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="133"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="130"/>
     </row>
     <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132">
+      <c r="C13" s="128"/>
+      <c r="D13" s="129">
         <v>61</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="G13" s="134" t="s">
+      <c r="E13" s="130"/>
+      <c r="G13" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="134"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
-      <c r="L13" s="131" t="s">
+      <c r="H13" s="141"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="130"/>
+      <c r="L13" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="M13" s="131"/>
-      <c r="N13" s="132">
+      <c r="M13" s="128"/>
+      <c r="N13" s="129">
         <v>3800</v>
       </c>
-      <c r="O13" s="133"/>
-      <c r="Q13" s="134" t="s">
+      <c r="O13" s="130"/>
+      <c r="Q13" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="R13" s="134"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="133"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="130"/>
     </row>
     <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="132" t="s">
+      <c r="C14" s="128"/>
+      <c r="D14" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="133"/>
-      <c r="G14" s="134" t="s">
+      <c r="E14" s="130"/>
+      <c r="G14" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="134"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="131" t="s">
+      <c r="L14" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="131"/>
-      <c r="N14" s="132">
+      <c r="M14" s="128"/>
+      <c r="N14" s="129">
         <v>61</v>
       </c>
-      <c r="O14" s="133"/>
-      <c r="Q14" s="134" t="s">
+      <c r="O14" s="130"/>
+      <c r="Q14" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="134"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="133"/>
+      <c r="R14" s="141"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="130"/>
     </row>
     <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="132">
+      <c r="C15" s="128"/>
+      <c r="D15" s="129">
         <v>5000</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="G15" s="134" t="s">
+      <c r="E15" s="130"/>
+      <c r="G15" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="134"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="133"/>
-      <c r="L15" s="131" t="s">
+      <c r="H15" s="141"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="130"/>
+      <c r="L15" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="131"/>
-      <c r="N15" s="132" t="s">
+      <c r="M15" s="128"/>
+      <c r="N15" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="133"/>
-      <c r="Q15" s="134" t="s">
+      <c r="O15" s="130"/>
+      <c r="Q15" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="134"/>
+      <c r="R15" s="141"/>
       <c r="S15" s="60"/>
       <c r="T15" s="61"/>
     </row>
     <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="129" t="s">
+      <c r="C16" s="133"/>
+      <c r="D16" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="130"/>
-      <c r="G16" s="128" t="s">
+      <c r="E16" s="135"/>
+      <c r="G16" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="130"/>
-      <c r="L16" s="131" t="s">
+      <c r="H16" s="137"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
+      <c r="L16" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="131"/>
-      <c r="N16" s="132">
+      <c r="M16" s="128"/>
+      <c r="N16" s="129">
         <v>5000</v>
       </c>
-      <c r="O16" s="133"/>
-      <c r="Q16" s="134" t="s">
+      <c r="O16" s="130"/>
+      <c r="Q16" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="134"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="133"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="130"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="137" t="s">
+      <c r="L17" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="137"/>
-      <c r="N17" s="129" t="s">
+      <c r="M17" s="133"/>
+      <c r="N17" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="130"/>
-      <c r="Q17" s="128" t="s">
+      <c r="O17" s="135"/>
+      <c r="Q17" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="128"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="130"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="135"/>
     </row>
     <row r="18" spans="2:20" ht="12" thickTop="1"/>
     <row r="19" spans="2:20" ht="13.5">
@@ -3370,351 +3384,274 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="G22" s="136" t="s">
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="G22" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
     </row>
     <row r="23" spans="2:20" ht="14.25" thickTop="1">
       <c r="B23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="143">
+      <c r="D23" s="139">
         <v>43084</v>
       </c>
-      <c r="E23" s="144"/>
+      <c r="E23" s="140"/>
       <c r="G23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="34"/>
-      <c r="I23" s="143">
+      <c r="I23" s="139">
         <v>43098</v>
       </c>
-      <c r="J23" s="144"/>
+      <c r="J23" s="140"/>
     </row>
     <row r="24" spans="2:20" ht="13.5">
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132" t="s">
+      <c r="C24" s="128"/>
+      <c r="D24" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="133"/>
-      <c r="G24" s="131" t="s">
+      <c r="E24" s="130"/>
+      <c r="G24" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="H24" s="131"/>
-      <c r="I24" s="132" t="s">
+      <c r="H24" s="128"/>
+      <c r="I24" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="J24" s="133"/>
+      <c r="J24" s="130"/>
     </row>
     <row r="25" spans="2:20" ht="13.5">
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="132" t="s">
+      <c r="C25" s="128"/>
+      <c r="D25" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="133"/>
-      <c r="G25" s="131" t="s">
+      <c r="E25" s="130"/>
+      <c r="G25" s="128" t="s">
         <v>225</v>
       </c>
-      <c r="H25" s="131"/>
-      <c r="I25" s="132">
+      <c r="H25" s="128"/>
+      <c r="I25" s="129">
         <v>9375</v>
       </c>
-      <c r="J25" s="133"/>
+      <c r="J25" s="130"/>
     </row>
     <row r="26" spans="2:20" ht="13.5">
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="131"/>
-      <c r="D26" s="140">
+      <c r="C26" s="128"/>
+      <c r="D26" s="131">
         <f>D31*D33</f>
         <v>1500000</v>
       </c>
-      <c r="E26" s="141"/>
+      <c r="E26" s="132"/>
       <c r="G26" s="123" t="s">
         <v>226</v>
       </c>
       <c r="H26" s="123"/>
-      <c r="I26" s="132" t="s">
+      <c r="I26" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="J26" s="133" t="s">
+      <c r="J26" s="130" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="13.5">
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132" t="s">
+      <c r="C27" s="128"/>
+      <c r="D27" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="133"/>
-      <c r="G27" s="131" t="s">
+      <c r="E27" s="130"/>
+      <c r="G27" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="131"/>
-      <c r="I27" s="132" t="s">
+      <c r="H27" s="128"/>
+      <c r="I27" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="J27" s="133"/>
+      <c r="J27" s="130"/>
     </row>
     <row r="28" spans="2:20" ht="13.5">
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="131"/>
-      <c r="D28" s="142">
+      <c r="C28" s="128"/>
+      <c r="D28" s="136">
         <v>43140</v>
       </c>
-      <c r="E28" s="133"/>
-      <c r="G28" s="131" t="s">
+      <c r="E28" s="130"/>
+      <c r="G28" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="131"/>
-      <c r="I28" s="142">
+      <c r="H28" s="128"/>
+      <c r="I28" s="136">
         <v>43159</v>
       </c>
-      <c r="J28" s="133"/>
+      <c r="J28" s="130"/>
     </row>
     <row r="29" spans="2:20" ht="13.5">
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="132">
+      <c r="C29" s="128"/>
+      <c r="D29" s="129">
         <v>3587</v>
       </c>
-      <c r="E29" s="133"/>
-      <c r="G29" s="131" t="s">
+      <c r="E29" s="130"/>
+      <c r="G29" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132">
+      <c r="H29" s="128"/>
+      <c r="I29" s="129">
         <v>9770</v>
       </c>
-      <c r="J29" s="133"/>
+      <c r="J29" s="130"/>
     </row>
     <row r="30" spans="2:20" ht="13.5">
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="132">
+      <c r="C30" s="128"/>
+      <c r="D30" s="129">
         <v>3650</v>
       </c>
-      <c r="E30" s="133"/>
-      <c r="G30" s="131" t="s">
+      <c r="E30" s="130"/>
+      <c r="G30" s="128" t="s">
         <v>221</v>
       </c>
-      <c r="H30" s="131"/>
+      <c r="H30" s="128"/>
       <c r="I30" s="124"/>
       <c r="J30" s="125">
         <v>9500</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="13.5">
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="132">
+      <c r="C31" s="128"/>
+      <c r="D31" s="129">
         <v>150</v>
       </c>
-      <c r="E31" s="133"/>
-      <c r="G31" s="131" t="s">
+      <c r="E31" s="130"/>
+      <c r="G31" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="H31" s="131"/>
-      <c r="I31" s="132">
+      <c r="H31" s="128"/>
+      <c r="I31" s="129">
         <v>10040</v>
       </c>
-      <c r="J31" s="133"/>
+      <c r="J31" s="130"/>
     </row>
     <row r="32" spans="2:20" ht="13.5">
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="132" t="s">
+      <c r="C32" s="128"/>
+      <c r="D32" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="133"/>
-      <c r="G32" s="131" t="s">
+      <c r="E32" s="130"/>
+      <c r="G32" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132">
+      <c r="H32" s="128"/>
+      <c r="I32" s="129">
         <v>15</v>
       </c>
-      <c r="J32" s="133"/>
+      <c r="J32" s="130"/>
     </row>
     <row r="33" spans="2:10" ht="13.5">
-      <c r="B33" s="131" t="s">
+      <c r="B33" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="140">
+      <c r="C33" s="128"/>
+      <c r="D33" s="131">
         <v>10000</v>
       </c>
-      <c r="E33" s="141"/>
-      <c r="G33" s="131" t="s">
+      <c r="E33" s="132"/>
+      <c r="G33" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="131"/>
-      <c r="I33" s="132" t="s">
+      <c r="H33" s="128"/>
+      <c r="I33" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="J33" s="133"/>
+      <c r="J33" s="130"/>
     </row>
     <row r="34" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="137"/>
-      <c r="D34" s="129" t="s">
+      <c r="C34" s="133"/>
+      <c r="D34" s="134" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="130"/>
-      <c r="G34" s="131" t="s">
+      <c r="E34" s="135"/>
+      <c r="G34" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="131"/>
-      <c r="I34" s="140">
+      <c r="H34" s="128"/>
+      <c r="I34" s="131">
         <v>625</v>
       </c>
-      <c r="J34" s="141"/>
+      <c r="J34" s="132"/>
     </row>
     <row r="35" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="G35" s="137" t="s">
+      <c r="G35" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="137"/>
-      <c r="I35" s="129" t="s">
+      <c r="H35" s="133"/>
+      <c r="I35" s="134" t="s">
         <v>210</v>
       </c>
-      <c r="J35" s="130"/>
+      <c r="J35" s="135"/>
     </row>
     <row r="36" spans="2:10" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -3739,29 +3676,106 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4024,8 +4038,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4049,10 +4063,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -4188,18 +4202,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3796</v>
+        <v>3855</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" ref="J8:J11" ca="1" si="1">TODAY()</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" ref="K8:K9" ca="1" si="2">J8+L8</f>
-        <v>43128</v>
+        <v>43141</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -4216,30 +4230,30 @@
       </c>
       <c r="P8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-128.07571831732707</v>
+        <v>-160.35179683357637</v>
       </c>
       <c r="Q8" s="25">
         <v>80</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R9" si="4">Q8/10000*M8*H8</f>
-        <v>2.496</v>
+        <v>2.5347945205479454</v>
       </c>
       <c r="S8" s="24">
         <f t="shared" ref="S8:S9" si="5">IF(P8&lt;=0,ABS(P8)+R8,P8-R8)</f>
-        <v>130.57171831732708</v>
+        <v>162.88659135412431</v>
       </c>
       <c r="T8" s="26">
         <f t="shared" ref="T8:T9" si="6">S8/H8</f>
-        <v>3.4397186068842754E-2</v>
+        <v>4.225333109056402E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-0.51142748085339917</v>
+        <v>-0.58224017429893138</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$N8,$O8,$C$4)*E8</f>
-        <v>-4.3324238038263729</v>
+        <v>-4.3057047561533182</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -4271,11 +4285,11 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43128</v>
+        <v>43141</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -4341,19 +4355,19 @@
       </c>
       <c r="H10" s="11">
         <f>RTD("wdf.rtq",,F10,"LastPrice")</f>
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="I10" s="11">
         <f>H10</f>
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ref="K10" ca="1" si="8">J10+L10</f>
-        <v>43129</v>
+        <v>43142</v>
       </c>
       <c r="L10" s="10">
         <v>31</v>
@@ -4370,7 +4384,7 @@
       </c>
       <c r="P10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-1292.7974704160442</v>
+        <v>-1281.192466193279</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="13">
@@ -4379,11 +4393,11 @@
       </c>
       <c r="S10" s="13">
         <f t="shared" ref="S10" si="11">IF(P10&lt;=0,ABS(P10)+R10,P10-R10)</f>
-        <v>1292.7974704160442</v>
+        <v>1281.192466193279</v>
       </c>
       <c r="T10" s="14">
         <f t="shared" ref="T10" si="12">S10/H10</f>
-        <v>2.3210008445530419E-2</v>
+        <v>2.3210008445530415E-2</v>
       </c>
       <c r="U10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
@@ -4391,7 +4405,7 @@
       </c>
       <c r="V10" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G10,$H10,$I10,$M10,$C$3,$N10,$O10,$C$4)*E10</f>
-        <v>-64.621552871230961</v>
+        <v>-64.041467118346191</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -4417,19 +4431,19 @@
       </c>
       <c r="H11" s="11">
         <f>RTD("wdf.rtq",,F11,"LastPrice")</f>
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="I11" s="11">
         <f>H11</f>
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ref="K11" ca="1" si="14">J11+L11</f>
-        <v>43159</v>
+        <v>43172</v>
       </c>
       <c r="L11" s="10">
         <v>61</v>
@@ -4446,7 +4460,7 @@
       </c>
       <c r="P11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-1810.2609081807859</v>
+        <v>-1794.0108102617487</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="13">
@@ -4455,19 +4469,19 @@
       </c>
       <c r="S11" s="13">
         <f t="shared" ref="S11" si="17">IF(P11&lt;=0,ABS(P11)+R11,P11-R11)</f>
-        <v>1810.2609081807859</v>
+        <v>1794.0108102617487</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" ref="T11" si="18">S11/H11</f>
-        <v>3.2500195838075153E-2</v>
+        <v>3.250019583807516E-2</v>
       </c>
       <c r="U11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-0.51458165471558459</v>
+        <v>-0.51458165507938247</v>
       </c>
       <c r="V11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-90.46257096341651</v>
+        <v>-89.650519159436953</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -5163,8 +5177,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5196,7 +5210,7 @@
       <c r="B1" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="37" t="s">
@@ -5339,11 +5353,11 @@
       </c>
       <c r="J8" s="76">
         <f ca="1">TODAY()</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K8" s="76">
         <f ca="1">J8+L8</f>
-        <v>43128</v>
+        <v>43141</v>
       </c>
       <c r="L8" s="74">
         <v>30</v>
@@ -5352,9 +5366,7 @@
         <f>L8/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="N8" s="77">
-        <v>0</v>
-      </c>
+      <c r="N8" s="77"/>
       <c r="O8" s="78">
         <v>0.32</v>
       </c>
@@ -5407,11 +5419,11 @@
       </c>
       <c r="J9" s="84">
         <f t="shared" ref="J9:L10" ca="1" si="0">J8</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K9" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>43128</v>
+        <v>43141</v>
       </c>
       <c r="L9" s="82">
         <f t="shared" si="0"/>
@@ -5421,10 +5433,7 @@
         <f>L9/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="N9" s="85">
-        <f>N8</f>
-        <v>0</v>
-      </c>
+      <c r="N9" s="85"/>
       <c r="O9" s="86">
         <v>0.3</v>
       </c>
@@ -5475,11 +5484,11 @@
       </c>
       <c r="J10" s="92">
         <f t="shared" ca="1" si="0"/>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K10" s="92">
         <f t="shared" ca="1" si="0"/>
-        <v>43128</v>
+        <v>43141</v>
       </c>
       <c r="L10" s="90">
         <f t="shared" si="0"/>
@@ -5542,18 +5551,18 @@
       </c>
       <c r="H11" s="83">
         <f>RTD("wdf.rtq",,F11,"LastPrice")</f>
-        <v>3611</v>
+        <v>3672</v>
       </c>
       <c r="I11" s="83">
         <v>3600</v>
       </c>
       <c r="J11" s="84">
         <f ca="1">TODAY()</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K11" s="84">
         <f ca="1">J11+L11</f>
-        <v>43249</v>
+        <v>43262</v>
       </c>
       <c r="L11" s="82">
         <v>151</v>
@@ -5562,30 +5571,28 @@
         <f>L11/365</f>
         <v>0.41369863013698632</v>
       </c>
-      <c r="N11" s="85">
-        <v>0.04</v>
-      </c>
+      <c r="N11" s="85"/>
       <c r="O11" s="86">
         <v>0.14000000000000001</v>
       </c>
       <c r="P11" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-167.8700202569953</v>
+        <v>-168.31824945691619</v>
       </c>
       <c r="Q11" s="87"/>
       <c r="R11" s="81"/>
       <c r="S11" s="81">
         <f>P11+R11</f>
-        <v>-167.8700202569953</v>
+        <v>-168.31824945691619</v>
       </c>
       <c r="T11" s="88"/>
       <c r="U11" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-0.60861411407131527</v>
+        <v>-0.59949045637495146</v>
       </c>
       <c r="V11" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G11,$H11,$I11,$M11,$C$3,$N11,$O11,$C$4)*E11</f>
-        <v>-9.0247985052724289</v>
+        <v>-9.0212281597795254</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="13.5">
@@ -5612,18 +5619,18 @@
       </c>
       <c r="H12" s="83">
         <f>H11</f>
-        <v>3611</v>
+        <v>3672</v>
       </c>
       <c r="I12" s="83">
         <v>3750</v>
       </c>
       <c r="J12" s="84">
         <f ca="1">J11</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K12" s="84">
         <f ca="1">K11</f>
-        <v>43249</v>
+        <v>43262</v>
       </c>
       <c r="L12" s="82">
         <f>L11</f>
@@ -5633,30 +5640,28 @@
         <f>L12/365</f>
         <v>0.41369863013698632</v>
       </c>
-      <c r="N12" s="85">
-        <v>0.04</v>
-      </c>
+      <c r="N12" s="85"/>
       <c r="O12" s="86">
         <v>0.12</v>
       </c>
       <c r="P12" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
-        <v>78.49080175272843</v>
+        <v>78.792879831283699</v>
       </c>
       <c r="Q12" s="87"/>
       <c r="R12" s="81"/>
       <c r="S12" s="81">
         <f>P12+R12</f>
-        <v>78.49080175272843</v>
+        <v>78.792879831283699</v>
       </c>
       <c r="T12" s="88"/>
       <c r="U12" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
-        <v>0.4099471253766751</v>
+        <v>0.40423533735065575</v>
       </c>
       <c r="V12" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G12,$H12,$I12,$M12,$C$3,$N12,$O12,$C$4)*E12</f>
-        <v>9.0829530339575513</v>
+        <v>9.0904878152565516</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="13.5">
@@ -5678,7 +5683,7 @@
       <c r="G13" s="90"/>
       <c r="H13" s="91">
         <f>H12</f>
-        <v>3611</v>
+        <v>3672</v>
       </c>
       <c r="I13" s="90" t="str">
         <f>I11 &amp; "|" &amp; I12</f>
@@ -5686,11 +5691,11 @@
       </c>
       <c r="J13" s="92">
         <f t="shared" ref="J13:K13" ca="1" si="2">J12</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K13" s="92">
         <f t="shared" ca="1" si="2"/>
-        <v>43249</v>
+        <v>43262</v>
       </c>
       <c r="L13" s="90">
         <f>L12</f>
@@ -5704,30 +5709,30 @@
       <c r="O13" s="90"/>
       <c r="P13" s="89">
         <f>P12+P11</f>
-        <v>-89.379218504266873</v>
+        <v>-89.525369625632493</v>
       </c>
       <c r="Q13" s="90">
         <v>50</v>
       </c>
       <c r="R13" s="89">
         <f>Q13/10000*M13*H13</f>
-        <v>7.4693287671232884</v>
+        <v>7.5955068493150693</v>
       </c>
       <c r="S13" s="89">
         <f>IF(P13&lt;=0,ABS(P13)+R13,P13-R13)</f>
-        <v>96.84854727139016</v>
+        <v>97.120876474947565</v>
       </c>
       <c r="T13" s="94">
         <f>S13/H13</f>
-        <v>2.6820422949706497E-2</v>
+        <v>2.6449040434353911E-2</v>
       </c>
       <c r="U13" s="94">
         <f>U12+U11</f>
-        <v>-0.19866698869464017</v>
+        <v>-0.19525511902429571</v>
       </c>
       <c r="V13" s="94">
         <f>V12+V11</f>
-        <v>5.8154528685122386E-2</v>
+        <v>6.9259655477026172E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="13.5">
@@ -5753,18 +5758,18 @@
       </c>
       <c r="H14" s="83">
         <f>RTD("wdf.rtq",,F14,"LastPrice")</f>
-        <v>3611</v>
+        <v>3672</v>
       </c>
       <c r="I14" s="83">
         <v>3900</v>
       </c>
       <c r="J14" s="84">
         <f ca="1">TODAY()</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K14" s="84">
         <f ca="1">J14+L14</f>
-        <v>43249</v>
+        <v>43262</v>
       </c>
       <c r="L14" s="82">
         <v>151</v>
@@ -5773,30 +5778,28 @@
         <f>L14/365</f>
         <v>0.41369863013698632</v>
       </c>
-      <c r="N14" s="85">
-        <v>0.04</v>
-      </c>
+      <c r="N14" s="85"/>
       <c r="O14" s="86">
         <v>0.14000000000000001</v>
       </c>
       <c r="P14" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G14,$H14,$I14,$M14,$C$3,$N14,$O14,$C$4)*E14</f>
-        <v>50.648329508153779</v>
+        <v>50.845683942387041</v>
       </c>
       <c r="Q14" s="87"/>
       <c r="R14" s="81"/>
       <c r="S14" s="81">
         <f>P14+R14</f>
-        <v>50.648329508153779</v>
+        <v>50.845683942387041</v>
       </c>
       <c r="T14" s="88"/>
       <c r="U14" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G14,$H14,$I14,$M14,$C$3,$N14,$O14,$C$4)*E14</f>
-        <v>0.26779086213082337</v>
+        <v>0.26413243502361183</v>
       </c>
       <c r="V14" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G14,$H14,$I14,$M14,$C$3,$N14,$O14,$C$4)*E14</f>
-        <v>7.6716780333890711</v>
+        <v>7.6841459258064901</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.5">
@@ -5823,18 +5826,18 @@
       </c>
       <c r="H15" s="83">
         <f>H14</f>
-        <v>3611</v>
+        <v>3672</v>
       </c>
       <c r="I15" s="83">
         <v>4050</v>
       </c>
       <c r="J15" s="84">
         <f ca="1">J14</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K15" s="84">
         <f ca="1">K14</f>
-        <v>43249</v>
+        <v>43262</v>
       </c>
       <c r="L15" s="82">
         <f>L14</f>
@@ -5844,30 +5847,28 @@
         <f>L15/365</f>
         <v>0.41369863013698632</v>
       </c>
-      <c r="N15" s="85">
-        <v>0.04</v>
-      </c>
+      <c r="N15" s="85"/>
       <c r="O15" s="86">
         <v>0.12</v>
       </c>
       <c r="P15" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G15,$H15,$I15,$M15,$C$3,$N15,$O15,$C$4)*E15</f>
-        <v>-14.248312515368525</v>
+        <v>-14.329153119443731</v>
       </c>
       <c r="Q15" s="87"/>
       <c r="R15" s="81"/>
       <c r="S15" s="81">
         <f>P15+R15</f>
-        <v>-14.248312515368525</v>
+        <v>-14.329153119443731</v>
       </c>
       <c r="T15" s="88"/>
       <c r="U15" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G15,$H15,$I15,$M15,$C$3,$N15,$O15,$C$4)*E15</f>
-        <v>-0.109597766302727</v>
+        <v>-0.10828803812898968</v>
       </c>
       <c r="V15" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G15,$H15,$I15,$M15,$C$3,$N15,$O15,$C$4)*E15</f>
-        <v>-4.3546719707687487</v>
+        <v>-4.3697440699403387</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.5">
@@ -5889,7 +5890,7 @@
       <c r="G16" s="90"/>
       <c r="H16" s="91">
         <f>H15</f>
-        <v>3611</v>
+        <v>3672</v>
       </c>
       <c r="I16" s="90" t="str">
         <f>I14 &amp; "|" &amp; I15</f>
@@ -5897,11 +5898,11 @@
       </c>
       <c r="J16" s="92">
         <f t="shared" ref="J16:K16" ca="1" si="3">J15</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K16" s="92">
         <f t="shared" ca="1" si="3"/>
-        <v>43249</v>
+        <v>43262</v>
       </c>
       <c r="L16" s="90">
         <f>L15</f>
@@ -5915,30 +5916,30 @@
       <c r="O16" s="90"/>
       <c r="P16" s="89">
         <f>P15+P14</f>
-        <v>36.400016992785254</v>
+        <v>36.516530822943309</v>
       </c>
       <c r="Q16" s="90">
         <v>50</v>
       </c>
       <c r="R16" s="89">
         <f>Q16/10000*M16*H16</f>
-        <v>7.4693287671232884</v>
+        <v>7.5955068493150693</v>
       </c>
       <c r="S16" s="89">
         <f>IF(P16&lt;=0,ABS(P16)+R16,P16-R16)</f>
-        <v>28.930688225661967</v>
+        <v>28.921023973628241</v>
       </c>
       <c r="T16" s="94">
         <f>S16/H16</f>
-        <v>8.0118217185438847E-3</v>
+        <v>7.876095853384597E-3</v>
       </c>
       <c r="U16" s="94">
         <f>U15+U14</f>
-        <v>0.15819309582809638</v>
+        <v>0.15584439689462215</v>
       </c>
       <c r="V16" s="94">
         <f>V15+V14</f>
-        <v>3.3170060626203224</v>
+        <v>3.3144018558661514</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.5">
@@ -5970,11 +5971,11 @@
       </c>
       <c r="J17" s="84">
         <f ca="1">TODAY()</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K17" s="84">
         <f ca="1">J17+L17</f>
-        <v>43160</v>
+        <v>43173</v>
       </c>
       <c r="L17" s="82">
         <v>62</v>
@@ -5984,29 +5985,29 @@
         <v>0.16986301369863013</v>
       </c>
       <c r="N17" s="85">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O17" s="86">
         <v>0.19</v>
       </c>
       <c r="P17" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G17,$H17,$I17,$M17,$C$3,$N17,$O17,$C$4)*E17</f>
-        <v>-165.63134768741293</v>
+        <v>-187.82001773054617</v>
       </c>
       <c r="Q17" s="87"/>
       <c r="R17" s="81"/>
       <c r="S17" s="81">
         <f>P17+R17</f>
-        <v>-165.63134768741293</v>
+        <v>-187.82001773054617</v>
       </c>
       <c r="T17" s="88"/>
       <c r="U17" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G17,$H17,$I17,$M17,$C$3,$N17,$O17,$C$4)*E17</f>
-        <v>0.32000440016872744</v>
+        <v>0.34931670354581001</v>
       </c>
       <c r="V17" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G17,$H17,$I17,$M17,$C$3,$N17,$O17,$C$4)*E17</f>
-        <v>-14.409978656959993</v>
+        <v>-14.854303179959288</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="13.5">
@@ -6039,11 +6040,11 @@
       </c>
       <c r="J18" s="84">
         <f ca="1">J17</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K18" s="84">
         <f ca="1">K17</f>
-        <v>43160</v>
+        <v>43173</v>
       </c>
       <c r="L18" s="82">
         <v>62</v>
@@ -6053,29 +6054,29 @@
         <v>0.16986301369863013</v>
       </c>
       <c r="N18" s="85">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O18" s="86">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="P18" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G18,$H18,$I18,$M18,$C$3,$N18,$O18,$C$4)*E18</f>
-        <v>214.38149431931424</v>
+        <v>173.36800186855407</v>
       </c>
       <c r="Q18" s="87"/>
       <c r="R18" s="81"/>
       <c r="S18" s="81">
         <f>P18+R18</f>
-        <v>214.38149431931424</v>
+        <v>173.36800186855407</v>
       </c>
       <c r="T18" s="88"/>
       <c r="U18" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G18,$H18,$I18,$M18,$C$3,$N18,$O18,$C$4)*E18</f>
-        <v>0.40838077020453056</v>
+        <v>0.36411839130323642</v>
       </c>
       <c r="V18" s="81">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G18,$H18,$I18,$M18,$C$3,$N18,$O18,$C$4)*E18</f>
-        <v>15.661001566102641</v>
+        <v>15.070168270000977</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="13.5">
@@ -6105,11 +6106,11 @@
       </c>
       <c r="J19" s="92">
         <f t="shared" ref="J19:K19" ca="1" si="4">J18</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K19" s="92">
         <f t="shared" ca="1" si="4"/>
-        <v>43160</v>
+        <v>43173</v>
       </c>
       <c r="L19" s="90">
         <f>L18</f>
@@ -6123,7 +6124,7 @@
       <c r="O19" s="90"/>
       <c r="P19" s="89">
         <f>P18+P17</f>
-        <v>48.750146631901316</v>
+        <v>-14.452015861992095</v>
       </c>
       <c r="Q19" s="90">
         <v>0</v>
@@ -6134,92 +6135,227 @@
       </c>
       <c r="S19" s="89">
         <f>IF(P19&lt;=0,ABS(P19)+R19,P19-R19)</f>
-        <v>48.750146631901316</v>
+        <v>14.452015861992095</v>
       </c>
       <c r="T19" s="94">
         <f>S19/H19</f>
-        <v>4.9948920729407089E-3</v>
+        <v>1.4807393301221408E-3</v>
       </c>
       <c r="U19" s="94">
         <f>U18+U17</f>
-        <v>0.72838517037325801</v>
+        <v>0.71343509484904644</v>
       </c>
       <c r="V19" s="94">
         <f>V18+V17</f>
-        <v>1.2510229091426481</v>
+        <v>0.21586509004168875</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="13.5">
       <c r="A20" s="95"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="81"/>
+      <c r="B20" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="82">
+        <f>IF(D20="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="83">
+        <v>10015</v>
+      </c>
+      <c r="I20" s="83">
+        <v>9500</v>
+      </c>
+      <c r="J20" s="84">
+        <f ca="1">TODAY()</f>
+        <v>43111</v>
+      </c>
+      <c r="K20" s="84">
+        <f ca="1">J20+L20</f>
+        <v>43159</v>
+      </c>
+      <c r="L20" s="82">
+        <v>48</v>
+      </c>
+      <c r="M20" s="85">
+        <f>L20/365</f>
+        <v>0.13150684931506848</v>
+      </c>
+      <c r="N20" s="85">
+        <v>0</v>
+      </c>
+      <c r="O20" s="86">
+        <v>0.19</v>
+      </c>
+      <c r="P20" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G20,$H20,$I20,$M20,$C$3,$N20,$O20,$C$4)*E20</f>
+        <v>85.457958845282064</v>
+      </c>
       <c r="Q20" s="87"/>
       <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
+      <c r="S20" s="81">
+        <f>P20+R20</f>
+        <v>85.457958845282064</v>
+      </c>
       <c r="T20" s="88"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
+      <c r="U20" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G20,$H20,$I20,$M20,$C$3,$N20,$O20,$C$4)*E20</f>
+        <v>-0.21111118219323544</v>
+      </c>
+      <c r="V20" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G20,$H20,$I20,$M20,$C$3,$N20,$O20,$C$4)*E20</f>
+        <v>10.481123035288874</v>
+      </c>
     </row>
     <row r="21" spans="1:22" ht="13.5">
       <c r="A21" s="95"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="81"/>
+      <c r="B21" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="82">
+        <f>IF(D21="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="F21" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="83">
+        <f>H20</f>
+        <v>10015</v>
+      </c>
+      <c r="I21" s="83">
+        <v>10040</v>
+      </c>
+      <c r="J21" s="84">
+        <f ca="1">J20</f>
+        <v>43111</v>
+      </c>
+      <c r="K21" s="84">
+        <f ca="1">K20</f>
+        <v>43159</v>
+      </c>
+      <c r="L21" s="82">
+        <v>48</v>
+      </c>
+      <c r="M21" s="85">
+        <f>L21/365</f>
+        <v>0.13150684931506848</v>
+      </c>
+      <c r="N21" s="85">
+        <v>0</v>
+      </c>
+      <c r="O21" s="86">
+        <v>0.19</v>
+      </c>
+      <c r="P21" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$G21,$H21,$I21,$M21,$C$3,$N21,$O21,$C$4)*E21</f>
+        <v>-262.56687096872429</v>
+      </c>
       <c r="Q21" s="87"/>
       <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
+      <c r="S21" s="81">
+        <f>P21+R21</f>
+        <v>-262.56687096872429</v>
+      </c>
       <c r="T21" s="88"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
+      <c r="U21" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$G21,$H21,$I21,$M21,$C$3,$N21,$O21,$C$4)*E21</f>
+        <v>-0.49799687512859236</v>
+      </c>
+      <c r="V21" s="81">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$G21,$H21,$I21,$M21,$C$3,$N21,$O21,$C$4)*E21</f>
+        <v>-14.450779409996358</v>
+      </c>
     </row>
     <row r="22" spans="1:22" ht="13.5">
       <c r="A22" s="95"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
+      <c r="B22" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="90" t="s">
+        <v>20</v>
+      </c>
       <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
+      <c r="F22" s="90" t="str">
+        <f>F21</f>
+        <v>l1805</v>
+      </c>
       <c r="G22" s="90"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="93"/>
+      <c r="H22" s="91">
+        <f>H21</f>
+        <v>10015</v>
+      </c>
+      <c r="I22" s="90" t="str">
+        <f>I20 &amp; "|" &amp; I21</f>
+        <v>9500|10040</v>
+      </c>
+      <c r="J22" s="92">
+        <f t="shared" ref="J22:K22" ca="1" si="5">J21</f>
+        <v>43111</v>
+      </c>
+      <c r="K22" s="92">
+        <f t="shared" ca="1" si="5"/>
+        <v>43159</v>
+      </c>
+      <c r="L22" s="90">
+        <v>48</v>
+      </c>
+      <c r="M22" s="93">
+        <f>M21</f>
+        <v>0.13150684931506848</v>
+      </c>
       <c r="N22" s="93"/>
       <c r="O22" s="90"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
+      <c r="P22" s="89">
+        <f>P21+P20</f>
+        <v>-177.10891212344222</v>
+      </c>
+      <c r="Q22" s="90">
+        <v>0</v>
+      </c>
+      <c r="R22" s="89">
+        <f>Q22/10000*M22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="89">
+        <f>IF(P22&lt;=0,ABS(P22)+R22,P22-R22)</f>
+        <v>177.10891212344222</v>
+      </c>
+      <c r="T22" s="94">
+        <f>S22/H22</f>
+        <v>1.7684364665346203E-2</v>
+      </c>
+      <c r="U22" s="94">
+        <f>U21+U20</f>
+        <v>-0.7091080573218278</v>
+      </c>
+      <c r="V22" s="94">
+        <f>V21+V20</f>
+        <v>-3.9696563747074833</v>
+      </c>
     </row>
     <row r="23" spans="1:22" ht="13.5">
       <c r="A23" s="95"/>
@@ -6688,10 +6824,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="139"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -6839,7 +6975,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3796</v>
+        <v>3855</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -6856,11 +6992,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43128</v>
+        <v>43141</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -6877,30 +7013,30 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-52.755702442371344</v>
+        <v>-64.061733493536494</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.496</v>
+        <v>2.5347945205479454</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>55.251702442371347</v>
+        <v>66.596528014084441</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>1.4555243003785918E-2</v>
+        <v>1.7275363946584809E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.17054719041418309</v>
+        <v>0.18181866945568004</v>
       </c>
       <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.64080780554556327</v>
+        <v>0.37384200326441785</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -6942,11 +7078,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43278</v>
+        <v>43291</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -8773,18 +8909,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3796</v>
+        <v>3855</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43128</v>
+        <v>43141</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -8798,30 +8934,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>129.67796544096541</v>
+        <v>162.20327675160661</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.496</v>
+        <v>2.5347945205479454</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>132.17396544096542</v>
+        <v>164.73807127215454</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>3.4819274352203743E-2</v>
+        <v>4.2733611224942812E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.5156548936611216</v>
+        <v>0.5864412978553446</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>4.3345142559755914</v>
+        <v>4.3003984219285485</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -8853,11 +8989,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43128</v>
+        <v>43141</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -8923,11 +9059,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43098</v>
+        <v>43111</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43128</v>
+        <v>43141</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
